--- a/biology/Biochimie/Prénylation/Prénylation.xlsx
+++ b/biology/Biochimie/Prénylation/Prénylation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9nylation</t>
+          <t>Prénylation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prénylation est le couplage d'un farnésyl en C15, géranyl-géranyl en C20 à des protéines sur un acide aminé cystéine en position C-terminale ou proche de l'extrémité C-terminale s'il y a présence d'un motif CaaX (où C est une cystéine, a un acide aminé aliphatique et X un acide aminé) comme les lamines A et B, certaines protéines G monomériques, et environ 300 autres protéines humaines. Elle permet la fixation d'une protéine sur la face interne d'une membrane plasmique cellulaire mais facilite également les interactions protéiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9nylation</t>
+          <t>Prénylation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prénylation de Ras (protéine G)
-La prénylation se fait soit par l'ajout d'un farnésyl diphosphate par une farnesyltransferase (FTase), soit par l'ajout d'un géranyl-géranyl par une géranylgeranyltransferase I (GGTase I). L'acide gras ajouté sera déterminé selon l'acide aminé X de la boîte CaaX. Un groupement carboxyle remplacera ensuite la partie aaX de la boîte Caax par une Ras-converting CaaX endopeptidase I (RCEI) et le processus se finira par l'ajout d'un groupement méthyle par une S-isoprenylcysteine O-methyltransferase (ICMT).
+          <t>Prénylation de Ras (protéine G)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prénylation se fait soit par l'ajout d'un farnésyl diphosphate par une farnesyltransferase (FTase), soit par l'ajout d'un géranyl-géranyl par une géranylgeranyltransferase I (GGTase I). L'acide gras ajouté sera déterminé selon l'acide aminé X de la boîte CaaX. Un groupement carboxyle remplacera ensuite la partie aaX de la boîte Caax par une Ras-converting CaaX endopeptidase I (RCEI) et le processus se finira par l'ajout d'un groupement méthyle par une S-isoprenylcysteine O-methyltransferase (ICMT).
 </t>
         </is>
       </c>
